--- a/Initial_Trial/Data Master File from M.O.L.E.xlsx
+++ b/Initial_Trial/Data Master File from M.O.L.E.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\quinnk4\Documents\Balloon Analysis\Temperature_Profile_Analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\quinnk4\Documents\Balloon Analysis\Temperature_Profile_Analysis\Initial_Trial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA4ACDAF-0C39-40D0-8E1E-80A6D8A1B85B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EE7A95B-B31E-4D18-8059-F674A94A2CD4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{E4CD502D-C8E8-40B6-B013-B5F40A71E6BE}"/>
+    <workbookView xWindow="-28920" yWindow="-2340" windowWidth="29040" windowHeight="15840" xr2:uid="{E4CD502D-C8E8-40B6-B013-B5F40A71E6BE}"/>
   </bookViews>
   <sheets>
     <sheet name="Production Conditions" sheetId="1" r:id="rId1"/>
@@ -510,7 +510,7 @@
   <dimension ref="A1:AH122"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="D3" sqref="D3:D113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
